--- a/public/files/excel/this_month_production.xlsx
+++ b/public/files/excel/this_month_production.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>رقم التوظيف</t>
   </si>
@@ -23,12 +23,6 @@
     <t>الاسم الثلاثي</t>
   </si>
   <si>
-    <t>المجموعة</t>
-  </si>
-  <si>
-    <t>الوردية</t>
-  </si>
-  <si>
     <t>الانتاج الكلي</t>
   </si>
   <si>
@@ -125,22 +119,7 @@
     <t>اليوم 31</t>
   </si>
   <si>
-    <t>احمد عبد الكريم هنداوي</t>
-  </si>
-  <si>
-    <t>الأولى</t>
-  </si>
-  <si>
-    <t>صباحية</t>
-  </si>
-  <si>
-    <t>محمد عبد القادر حسين</t>
-  </si>
-  <si>
-    <t>الرابعة</t>
-  </si>
-  <si>
-    <t>مسائية</t>
+    <t>عبد المنعم محمد القضيب</t>
   </si>
 </sst>
 </file>
@@ -479,7 +458,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +466,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:34">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -590,51 +569,22 @@
       <c r="AH1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2">
+        <v>185</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36">
-      <c r="A2">
-        <v>109</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
+      <c r="C2">
+        <v>10000</v>
+      </c>
+      <c r="D2">
+        <v>4000</v>
       </c>
       <c r="E2">
-        <v>1200</v>
-      </c>
-      <c r="AF2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36">
-      <c r="A3">
-        <v>661</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3">
-        <v>1500</v>
-      </c>
-      <c r="AF3">
-        <v>1000</v>
+        <v>4000</v>
       </c>
     </row>
   </sheetData>

--- a/public/files/excel/this_month_production.xlsx
+++ b/public/files/excel/this_month_production.xlsx
@@ -578,13 +578,10 @@
         <v>34</v>
       </c>
       <c r="C2">
-        <v>10000</v>
-      </c>
-      <c r="D2">
-        <v>4000</v>
-      </c>
-      <c r="E2">
-        <v>4000</v>
+        <v>600</v>
+      </c>
+      <c r="U2">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
